--- a/manual/JSONインターフェイス.xlsx
+++ b/manual/JSONインターフェイス.xlsx
@@ -12,18 +12,19 @@
     <sheet name="LOGIN" sheetId="6" r:id="rId3"/>
     <sheet name="LOGIN _OK" sheetId="7" r:id="rId4"/>
     <sheet name="START" sheetId="8" r:id="rId5"/>
-    <sheet name="UPDATE" sheetId="4" r:id="rId6"/>
-    <sheet name="ACTION" sheetId="10" r:id="rId7"/>
-    <sheet name="ACTION_OK" sheetId="11" r:id="rId8"/>
-    <sheet name="ACTION_NG" sheetId="12" r:id="rId9"/>
-    <sheet name="END" sheetId="13" r:id="rId10"/>
+    <sheet name="GET" sheetId="15" r:id="rId6"/>
+    <sheet name="UPDATE" sheetId="4" r:id="rId7"/>
+    <sheet name="ACTION" sheetId="10" r:id="rId8"/>
+    <sheet name="ACTION_OK" sheetId="11" r:id="rId9"/>
+    <sheet name="ACTION_NG" sheetId="12" r:id="rId10"/>
+    <sheet name="END" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="135">
   <si>
     <t>Message</t>
     <phoneticPr fontId="1"/>
@@ -816,6 +817,77 @@
   </si>
   <si>
     <t>[boxの設定内容について]参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント(ビュア)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュアクライアントからサーバーにゲーム情報取得の要求を送信する</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバからの通知を受け取るクライアントIPアドレス</t>
+    <rPh sb="6" eb="8">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"id":"GET","user":{"name":"name1","password":"","ip":"127.0.0.2","port":34566}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ojms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下中のおじゃまぷよの居場所の番号のリスト</t>
+    <rPh sb="0" eb="3">
+      <t>ラッカチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イバショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下中のおじゃまぷよがいる場所の番号(図2)</t>
+    <rPh sb="0" eb="3">
+      <t>ラッカチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -839,7 +911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1041,6 +1119,30 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1068,30 +1170,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1113,6 +1191,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1122,14 +1209,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,7 +1249,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>10057</xdr:rowOff>
     </xdr:to>
@@ -1715,13 +1808,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1770,13 +1863,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3800474</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>107734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1813,13 +1906,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1873,7 +1966,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1824602" cy="264560"/>
@@ -1934,7 +2027,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1935723" cy="264560"/>
@@ -2011,7 +2104,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1903021" cy="264560"/>
@@ -2072,7 +2165,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1871153" cy="264560"/>
@@ -2141,7 +2234,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1105624" cy="275717"/>
@@ -2218,7 +2311,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1807418" cy="264560"/>
@@ -5834,28 +5927,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH65"/>
+  <dimension ref="B1:AH66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="6" width="2.375" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
@@ -5867,14 +5958,14 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
@@ -5882,14 +5973,14 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="19"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5897,14 +5988,14 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="19"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
@@ -5912,14 +6003,14 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
@@ -5927,14 +6018,14 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
@@ -5946,14 +6037,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
@@ -5965,14 +6056,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
@@ -5984,14 +6075,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="25" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
@@ -6001,28 +6092,28 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
@@ -6032,14 +6123,14 @@
       <c r="I11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
@@ -6049,68 +6140,68 @@
       <c r="I12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
         <v>34</v>
       </c>
@@ -6120,14 +6211,14 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="7" t="s">
         <v>34</v>
       </c>
@@ -6139,14 +6230,14 @@
       </c>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
         <v>34</v>
       </c>
@@ -6158,14 +6249,14 @@
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
         <v>34</v>
       </c>
@@ -6175,14 +6266,14 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="25" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="7" t="s">
         <v>32</v>
       </c>
@@ -6192,14 +6283,14 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
         <v>33</v>
       </c>
@@ -6209,14 +6300,14 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
         <v>33</v>
       </c>
@@ -6226,14 +6317,14 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:34" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="7" t="s">
         <v>35</v>
       </c>
@@ -6245,32 +6336,68 @@
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="7" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="AH27" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AH28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="25:25" x14ac:dyDescent="0.15">
-      <c r="Y65" t="s">
+    <row r="66" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y66" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="D6:D24"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:B25"/>
+    <mergeCell ref="C5:C25"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B2:G2"/>
@@ -6284,26 +6411,10 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:B24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="D6:D23"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
       <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6314,6 +6425,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="E3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+      <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -6338,12 +6559,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6361,19 +6582,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6385,20 +6606,20 @@
         <v>83</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R12" t="s">
@@ -6427,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6456,30 +6677,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
@@ -6497,8 +6718,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
@@ -6516,11 +6737,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>119</v>
       </c>
@@ -6535,11 +6756,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
@@ -6554,11 +6775,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4">
         <v>9</v>
       </c>
@@ -6634,12 +6855,12 @@
       <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6657,19 +6878,19 @@
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6680,25 +6901,25 @@
       <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="19"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="33"/>
@@ -6709,58 +6930,58 @@
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D5" s="31"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D6" s="31"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D7" s="31"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D8" s="32"/>
@@ -6768,16 +6989,16 @@
       <c r="F8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="17" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R17" t="s">
@@ -6834,12 +7055,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6857,19 +7078,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6880,25 +7101,25 @@
       <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="19"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="33"/>
@@ -6909,75 +7130,75 @@
         <v>32</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D5" s="31"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="D6" s="31"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D7" s="31"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D8" s="32"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K9" s="6"/>
@@ -7017,7 +7238,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7037,12 +7258,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7060,19 +7281,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7083,149 +7304,149 @@
       <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="19"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="26" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="26" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="35"/>
       <c r="I12" s="2" t="s">
         <v>20</v>
@@ -7233,173 +7454,173 @@
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="35"/>
       <c r="H15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="26" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="14"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D24" s="35"/>
@@ -7407,14 +7628,14 @@
       <c r="F24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R33" t="s">
@@ -7423,20 +7644,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K5:K24"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="L2:L24"/>
@@ -7453,6 +7660,20 @@
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="K5:K24"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7466,6 +7687,209 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D4" s="27"/>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D5" s="31"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D6" s="31"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D7" s="31"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D8" s="32"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="17" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8">
+      <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
@@ -7490,12 +7914,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7513,19 +7937,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7536,149 +7960,149 @@
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="19"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="26" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="26" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="35"/>
       <c r="I12" s="2" t="s">
         <v>20</v>
@@ -7686,173 +8110,173 @@
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="35"/>
       <c r="H15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="26" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="14"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D24" s="35"/>
@@ -7860,14 +8284,14 @@
       <c r="F24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R33" t="s">
@@ -7876,6 +8300,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:D24"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:E24"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="L2:L24"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="F24:I24"/>
@@ -7892,20 +8330,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="K5:K24"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:D24"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:E24"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7918,11 +8342,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -7943,12 +8367,12 @@
       <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7966,19 +8390,19 @@
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7989,25 +8413,25 @@
       <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="19"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="33"/>
@@ -8018,29 +8442,29 @@
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="33"/>
@@ -8050,13 +8474,13 @@
         <v>32</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="26" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="33"/>
@@ -8064,95 +8488,95 @@
       <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="35"/>
       <c r="H9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="19"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="19"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="33"/>
@@ -8163,58 +8587,58 @@
         <v>32</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D14" s="31"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D15" s="31"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D16" s="31"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D17" s="32"/>
@@ -8222,16 +8646,16 @@
       <c r="F17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.15">
       <c r="R26" t="s">
@@ -8240,14 +8664,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="L2:L17"/>
@@ -8264,6 +8680,14 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8276,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
@@ -8301,12 +8725,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8324,19 +8748,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8348,130 +8772,20 @@
         <v>76</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="E3:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
-      <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="2.375" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R12" t="s">

--- a/manual/JSONインターフェイス.xlsx
+++ b/manual/JSONインターフェイス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="143">
   <si>
     <t>Message</t>
     <phoneticPr fontId="1"/>
@@ -887,6 +887,56 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fallSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NORMAL,FAST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷよの落下スピード</t>
+    <rPh sb="3" eb="5">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ojmCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじゃまポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このポイント/70個のぷよが落下する。</t>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fallSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NORMAL,FAST　(FASTを設定することによって、ぷよを高速落下させる)</t>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ラッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1089,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1119,29 +1169,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1164,11 +1211,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1210,18 +1275,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,13 +1871,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1863,13 +1926,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3800474</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>107734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1906,13 +1969,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1966,7 +2029,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1824602" cy="264560"/>
@@ -2027,7 +2090,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1935723" cy="264560"/>
@@ -2104,7 +2167,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1903021" cy="264560"/>
@@ -2165,7 +2228,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1871153" cy="264560"/>
@@ -2234,7 +2297,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1105624" cy="275717"/>
@@ -2311,7 +2374,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1807418" cy="264560"/>
@@ -5927,9 +5990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH66"/>
+  <dimension ref="B1:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5941,12 +6006,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
@@ -5958,14 +6023,14 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
@@ -5973,14 +6038,14 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="27"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5988,14 +6053,14 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
@@ -6003,14 +6068,14 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
@@ -6018,14 +6083,14 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
@@ -6037,14 +6102,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
@@ -6056,14 +6121,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
@@ -6075,14 +6140,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
@@ -6092,28 +6157,28 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
@@ -6123,14 +6188,14 @@
       <c r="I11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
@@ -6140,68 +6205,68 @@
       <c r="I12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="13" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="7" t="s">
         <v>34</v>
       </c>
@@ -6211,193 +6276,215 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B18" s="26"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B19" s="26"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B20" s="26"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="20" t="s">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B22" s="26"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="7" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="13" t="s">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B23" s="26"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="7" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="13" t="s">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B24" s="26"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="7" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:34" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="13" t="s">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:34" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" s="26"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="7" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="43" t="s">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B26" s="26"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I26" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J26" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="13" t="s">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="7" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="AH28" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AH30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="25:25" x14ac:dyDescent="0.15">
-      <c r="Y66" t="s">
+    <row r="68" spans="25:25" x14ac:dyDescent="0.15">
+      <c r="Y68" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="D6:D24"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:B25"/>
-    <mergeCell ref="C5:C25"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E21:E22"/>
+  <mergeCells count="32">
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B2:G2"/>
@@ -6411,10 +6498,28 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="D6:D26"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C5:C27"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
       <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6449,12 +6554,12 @@
       <c r="B1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6472,19 +6577,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6496,20 +6601,20 @@
         <v>80</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R12" t="s">
@@ -6559,12 +6664,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6582,19 +6687,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6606,20 +6711,20 @@
         <v>83</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R12" t="s">
@@ -6648,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6660,9 +6765,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="9" t="s">
         <v>110</v>
       </c>
@@ -6677,30 +6782,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
@@ -6718,8 +6823,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
@@ -6737,11 +6842,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="4" t="s">
         <v>119</v>
       </c>
@@ -6756,11 +6861,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
@@ -6775,11 +6880,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="4">
         <v>9</v>
       </c>
@@ -6855,12 +6960,12 @@
       <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6878,19 +6983,19 @@
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6901,104 +7006,104 @@
       <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="31"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="31"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="17" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R17" t="s">
@@ -7055,12 +7160,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7078,19 +7183,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7101,104 +7206,104 @@
       <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="31"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="31"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K9" s="6"/>
@@ -7258,12 +7363,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7281,19 +7386,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7304,338 +7409,338 @@
       <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="36" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="36" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="22"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="36" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="35"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="36" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="36" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="36" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="36" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="22"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="36" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="22"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="22"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="22"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="40" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="23"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R33" t="s">
@@ -7644,6 +7749,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K5:K24"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="L2:L24"/>
@@ -7660,20 +7779,6 @@
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="K5:K24"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7714,12 +7819,12 @@
       <c r="B1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7737,19 +7842,19 @@
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7760,104 +7865,104 @@
       <c r="B3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="31"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="31"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="17" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R17" t="s">
@@ -7914,12 +8019,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -7937,19 +8042,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7960,338 +8065,338 @@
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="36" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="36" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="22"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="36" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="35"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="36" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="36" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="36" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="36" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="22"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="36" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="22"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="22"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="22"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="40" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="23"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R33" t="s">
@@ -8300,20 +8405,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:D24"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:E24"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="L2:L24"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="F24:I24"/>
@@ -8330,6 +8421,20 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="K5:K24"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:D24"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:E24"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8344,10 +8449,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8367,12 +8472,12 @@
       <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8390,19 +8495,19 @@
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8413,285 +8518,303 @@
       <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="36" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D12" s="27"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D13" s="27"/>
-      <c r="E13" s="16" t="s">
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D14" s="26"/>
+      <c r="E14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="2" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D14" s="31"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="36" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D15" s="36"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D15" s="31"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D16" s="31"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="R26" t="s">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="R27" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="E5:E13"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
-    <mergeCell ref="L2:L17"/>
-    <mergeCell ref="D3:D17"/>
+    <mergeCell ref="L2:L18"/>
+    <mergeCell ref="D3:D18"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:E12"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
       <formula1>"整数,文字列,オブジェクト,リスト"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8725,12 +8848,12 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8748,19 +8871,19 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8772,20 +8895,20 @@
         <v>76</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R12" t="s">
